--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H2">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>9.158401291339</v>
+        <v>5.771161376390222</v>
       </c>
       <c r="R2">
-        <v>82.42561162205101</v>
+        <v>51.940452387512</v>
       </c>
       <c r="S2">
-        <v>0.03095763102267895</v>
+        <v>0.02048360240602649</v>
       </c>
       <c r="T2">
-        <v>0.03095763102267895</v>
+        <v>0.02048360240602649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H3">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>37.27848857091833</v>
+        <v>35.79659017108666</v>
       </c>
       <c r="R3">
-        <v>335.506397138265</v>
+        <v>322.16931153978</v>
       </c>
       <c r="S3">
-        <v>0.1260103873536334</v>
+        <v>0.1270529574091806</v>
       </c>
       <c r="T3">
-        <v>0.1260103873536334</v>
+        <v>0.1270529574091806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H4">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>12.24107727658755</v>
+        <v>14.33404389484889</v>
       </c>
       <c r="R4">
-        <v>110.169695489288</v>
+        <v>129.00639505364</v>
       </c>
       <c r="S4">
-        <v>0.04137782802846502</v>
+        <v>0.05087587001357891</v>
       </c>
       <c r="T4">
-        <v>0.04137782802846503</v>
+        <v>0.05087587001357891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H5">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>43.38731160374334</v>
+        <v>34.05969229737467</v>
       </c>
       <c r="R5">
-        <v>390.4858044336901</v>
+        <v>306.537230676372</v>
       </c>
       <c r="S5">
-        <v>0.1466596997627635</v>
+        <v>0.1208881799675831</v>
       </c>
       <c r="T5">
-        <v>0.1466596997627635</v>
+        <v>0.1208881799675831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>11.360789060373</v>
+        <v>7.455361077138</v>
       </c>
       <c r="R6">
-        <v>102.247101543357</v>
+        <v>67.098249694242</v>
       </c>
       <c r="S6">
-        <v>0.03840223906656248</v>
+        <v>0.02646133804578858</v>
       </c>
       <c r="T6">
-        <v>0.03840223906656248</v>
+        <v>0.02646133804578858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>46.243119478095</v>
@@ -883,10 +883,10 @@
         <v>416.188075302855</v>
       </c>
       <c r="S7">
-        <v>0.1563130271976998</v>
+        <v>0.1641308588733578</v>
       </c>
       <c r="T7">
-        <v>0.1563130271976999</v>
+        <v>0.1641308588733578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>15.184778695224</v>
+        <v>18.51715208811</v>
       </c>
       <c r="R8">
-        <v>136.663008257016</v>
+        <v>166.65436879299</v>
       </c>
       <c r="S8">
-        <v>0.05132825708918594</v>
+        <v>0.06572298993690831</v>
       </c>
       <c r="T8">
-        <v>0.05132825708918595</v>
+        <v>0.06572298993690831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>53.82097588287</v>
+        <v>43.999342193403</v>
       </c>
       <c r="R9">
-        <v>484.3887829458301</v>
+        <v>395.9940797406269</v>
       </c>
       <c r="S9">
-        <v>0.181928030849453</v>
+        <v>0.1561670126403744</v>
       </c>
       <c r="T9">
-        <v>0.181928030849453</v>
+        <v>0.1561670126403744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H10">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>5.90457025478</v>
+        <v>4.745625873964444</v>
       </c>
       <c r="R10">
-        <v>53.14113229302001</v>
+        <v>42.71063286568</v>
       </c>
       <c r="S10">
-        <v>0.01995888818148082</v>
+        <v>0.01684366581182686</v>
       </c>
       <c r="T10">
-        <v>0.01995888818148082</v>
+        <v>0.01684366581182686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H11">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>24.03404783836666</v>
+        <v>29.43553531713333</v>
       </c>
       <c r="R11">
-        <v>216.3064305453</v>
+        <v>264.9198178541999</v>
       </c>
       <c r="S11">
-        <v>0.0812409460224458</v>
+        <v>0.1044756441071561</v>
       </c>
       <c r="T11">
-        <v>0.08124094602244582</v>
+        <v>0.1044756441071561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H12">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>7.89202159575111</v>
+        <v>11.78688398217778</v>
       </c>
       <c r="R12">
-        <v>71.02819436176</v>
+        <v>106.0819558396</v>
       </c>
       <c r="S12">
-        <v>0.02667695865383469</v>
+        <v>0.04183522680280822</v>
       </c>
       <c r="T12">
-        <v>0.0266769586538347</v>
+        <v>0.04183522680280822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H13">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>27.97250539486667</v>
+        <v>28.00728423345333</v>
       </c>
       <c r="R13">
-        <v>251.7525485538</v>
+        <v>252.0655581010799</v>
       </c>
       <c r="S13">
-        <v>0.09455389355051626</v>
+        <v>0.09940634775135454</v>
       </c>
       <c r="T13">
-        <v>0.09455389355051629</v>
+        <v>0.09940634775135455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H14">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>0.121903348984</v>
+        <v>0.1022342428091111</v>
       </c>
       <c r="R14">
-        <v>1.097130140856</v>
+        <v>0.9201081852820001</v>
       </c>
       <c r="S14">
-        <v>0.0004120630640900628</v>
+        <v>0.0003628603404767118</v>
       </c>
       <c r="T14">
-        <v>0.0004120630640900628</v>
+        <v>0.0003628603404767118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H15">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>0.4961971480933333</v>
+        <v>0.6341249278283334</v>
       </c>
       <c r="R15">
-        <v>4.46577433284</v>
+        <v>5.707124350455</v>
       </c>
       <c r="S15">
-        <v>0.001677267433095098</v>
+        <v>0.00225070173059523</v>
       </c>
       <c r="T15">
-        <v>0.001677267433095098</v>
+        <v>0.00225070173059523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H16">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>0.1629354586808889</v>
+        <v>0.2539229157544445</v>
       </c>
       <c r="R16">
-        <v>1.466419128128</v>
+        <v>2.28530624179</v>
       </c>
       <c r="S16">
-        <v>0.0005507616067363258</v>
+        <v>0.0009012494555032371</v>
       </c>
       <c r="T16">
-        <v>0.0005507616067363258</v>
+        <v>0.0009012494555032371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H17">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>0.5775089362933334</v>
+        <v>0.6033563480963333</v>
       </c>
       <c r="R17">
-        <v>5.197580426640001</v>
+        <v>5.430207132866999</v>
       </c>
       <c r="S17">
-        <v>0.001952121117358784</v>
+        <v>0.002141494707480824</v>
       </c>
       <c r="T17">
-        <v>0.001952121117358784</v>
+        <v>0.002141494707480824</v>
       </c>
     </row>
   </sheetData>
